--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.40767</v>
+        <v>4.460581666666666</v>
       </c>
       <c r="H2">
-        <v>19.22301</v>
+        <v>13.381745</v>
       </c>
       <c r="I2">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="J2">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>52.10226416478</v>
+        <v>16.92876534354056</v>
       </c>
       <c r="R2">
-        <v>468.92037748302</v>
+        <v>152.358888091865</v>
       </c>
       <c r="S2">
-        <v>0.0007172070477125468</v>
+        <v>0.0002479309188217092</v>
       </c>
       <c r="T2">
-        <v>0.0007172070477125468</v>
+        <v>0.0002479309188217092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.40767</v>
+        <v>4.460581666666666</v>
       </c>
       <c r="H3">
-        <v>19.22301</v>
+        <v>13.381745</v>
       </c>
       <c r="I3">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="J3">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>1559.47564844444</v>
+        <v>1085.600301991891</v>
       </c>
       <c r="R3">
-        <v>14035.28083599996</v>
+        <v>9770.40271792702</v>
       </c>
       <c r="S3">
-        <v>0.02146676240907983</v>
+        <v>0.01589920321322633</v>
       </c>
       <c r="T3">
-        <v>0.02146676240907983</v>
+        <v>0.01589920321322633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.40767</v>
+        <v>4.460581666666666</v>
       </c>
       <c r="H4">
-        <v>19.22301</v>
+        <v>13.381745</v>
       </c>
       <c r="I4">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="J4">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>214.13631754072</v>
+        <v>132.9314491241317</v>
       </c>
       <c r="R4">
-        <v>1927.22685786648</v>
+        <v>1196.383042117185</v>
       </c>
       <c r="S4">
-        <v>0.002947666067365131</v>
+        <v>0.001946852924759976</v>
       </c>
       <c r="T4">
-        <v>0.002947666067365131</v>
+        <v>0.001946852924759976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.40767</v>
+        <v>4.460581666666666</v>
       </c>
       <c r="H5">
-        <v>19.22301</v>
+        <v>13.381745</v>
       </c>
       <c r="I5">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="J5">
-        <v>0.0342997879559413</v>
+        <v>0.02374331093277876</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>666.03012536935</v>
+        <v>385.7367959610677</v>
       </c>
       <c r="R5">
-        <v>5994.27112832415</v>
+        <v>3471.63116364961</v>
       </c>
       <c r="S5">
-        <v>0.009168152431783785</v>
+        <v>0.005649323875970743</v>
       </c>
       <c r="T5">
-        <v>0.009168152431783785</v>
+        <v>0.005649323875970743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>473.387938</v>
       </c>
       <c r="I6">
-        <v>0.8446703140819405</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="J6">
-        <v>0.8446703140819404</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>1283.076032218497</v>
+        <v>598.8660909966918</v>
       </c>
       <c r="R6">
-        <v>11547.68428996647</v>
+        <v>5389.794818970227</v>
       </c>
       <c r="S6">
-        <v>0.01766201887403222</v>
+        <v>0.008770717602783071</v>
       </c>
       <c r="T6">
-        <v>0.01766201887403222</v>
+        <v>0.008770717602783071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>473.387938</v>
       </c>
       <c r="I7">
-        <v>0.8446703140819405</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="J7">
-        <v>0.8446703140819404</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>38403.81717422642</v>
+        <v>38403.81717422643</v>
       </c>
       <c r="R7">
         <v>345634.3545680378</v>
       </c>
       <c r="S7">
-        <v>0.5286428292119816</v>
+        <v>0.5624446606143062</v>
       </c>
       <c r="T7">
-        <v>0.5286428292119815</v>
+        <v>0.5624446606143062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>473.387938</v>
       </c>
       <c r="I8">
-        <v>0.8446703140819405</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="J8">
-        <v>0.8446703140819404</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>5273.344279148513</v>
+        <v>4702.536522420999</v>
       </c>
       <c r="R8">
-        <v>47460.09851233662</v>
+        <v>42322.82870178899</v>
       </c>
       <c r="S8">
-        <v>0.07258954563008334</v>
+        <v>0.06887118919403967</v>
       </c>
       <c r="T8">
-        <v>0.07258954563008332</v>
+        <v>0.06887118919403966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>473.387938</v>
       </c>
       <c r="I9">
-        <v>0.8446703140819405</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="J9">
-        <v>0.8446703140819404</v>
+        <v>0.8399350760129561</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>16401.73041029881</v>
+        <v>13645.69018844228</v>
       </c>
       <c r="R9">
-        <v>147615.5736926892</v>
+        <v>122811.2116959806</v>
       </c>
       <c r="S9">
-        <v>0.2257759203658434</v>
+        <v>0.1998485086018272</v>
       </c>
       <c r="T9">
-        <v>0.2257759203658434</v>
+        <v>0.1998485086018272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52685066666666</v>
+        <v>22.09067233333333</v>
       </c>
       <c r="H10">
-        <v>58.580552</v>
+        <v>66.27201700000001</v>
       </c>
       <c r="I10">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="J10">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>158.7773920537226</v>
+        <v>83.83835027764546</v>
       </c>
       <c r="R10">
-        <v>1428.996528483504</v>
+        <v>754.5451524988091</v>
       </c>
       <c r="S10">
-        <v>0.002185629865109123</v>
+        <v>0.001227857956266387</v>
       </c>
       <c r="T10">
-        <v>0.002185629865109123</v>
+        <v>0.001227857956266387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52685066666666</v>
+        <v>22.09067233333333</v>
       </c>
       <c r="H11">
-        <v>58.580552</v>
+        <v>66.27201700000001</v>
       </c>
       <c r="I11">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="J11">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>4752.374592555132</v>
+        <v>5376.348276612038</v>
       </c>
       <c r="R11">
-        <v>42771.37133299619</v>
+        <v>48387.13448950834</v>
       </c>
       <c r="S11">
-        <v>0.06541820409898066</v>
+        <v>0.0787395265440636</v>
       </c>
       <c r="T11">
-        <v>0.06541820409898066</v>
+        <v>0.0787395265440636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52685066666666</v>
+        <v>22.09067233333333</v>
       </c>
       <c r="H12">
-        <v>58.580552</v>
+        <v>66.27201700000001</v>
       </c>
       <c r="I12">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="J12">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>652.5629276987661</v>
+        <v>658.3323218451023</v>
       </c>
       <c r="R12">
-        <v>5873.066349288895</v>
+        <v>5924.990896605921</v>
       </c>
       <c r="S12">
-        <v>0.008982771446194875</v>
+        <v>0.009641632696348115</v>
       </c>
       <c r="T12">
-        <v>0.008982771446194875</v>
+        <v>0.009641632696348114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52685066666666</v>
+        <v>22.09067233333333</v>
       </c>
       <c r="H13">
-        <v>58.580552</v>
+        <v>66.27201700000001</v>
       </c>
       <c r="I13">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="J13">
-        <v>0.1045258006910464</v>
+        <v>0.1175868398159882</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>2029.672376634342</v>
+        <v>1910.330491236936</v>
       </c>
       <c r="R13">
-        <v>18267.05138970908</v>
+        <v>17192.97442113243</v>
       </c>
       <c r="S13">
-        <v>0.02793919528076177</v>
+        <v>0.02797782261931004</v>
       </c>
       <c r="T13">
-        <v>0.02793919528076177</v>
+        <v>0.02797782261931004</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.083191333333334</v>
+        <v>3.519643333333333</v>
       </c>
       <c r="H14">
-        <v>9.249574000000001</v>
+        <v>10.55893</v>
       </c>
       <c r="I14">
-        <v>0.0165040972710719</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="J14">
-        <v>0.01650409727107189</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>25.07015019810533</v>
+        <v>13.35772339473445</v>
       </c>
       <c r="R14">
-        <v>225.631351782948</v>
+        <v>120.21951055261</v>
       </c>
       <c r="S14">
-        <v>0.0003450999433043385</v>
+        <v>0.0001956310792556659</v>
       </c>
       <c r="T14">
-        <v>0.0003450999433043385</v>
+        <v>0.0001956310792556659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.083191333333334</v>
+        <v>3.519643333333333</v>
       </c>
       <c r="H15">
-        <v>9.249574000000001</v>
+        <v>10.55893</v>
       </c>
       <c r="I15">
-        <v>0.0165040972710719</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="J15">
-        <v>0.01650409727107189</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>750.3760031069449</v>
+        <v>856.598119057809</v>
       </c>
       <c r="R15">
-        <v>6753.384027962505</v>
+        <v>7709.383071520281</v>
       </c>
       <c r="S15">
-        <v>0.01032920481460511</v>
+        <v>0.01254534246350023</v>
       </c>
       <c r="T15">
-        <v>0.01032920481460511</v>
+        <v>0.01254534246350023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.083191333333334</v>
+        <v>3.519643333333333</v>
       </c>
       <c r="H16">
-        <v>9.249574000000001</v>
+        <v>10.55893</v>
       </c>
       <c r="I16">
-        <v>0.0165040972710719</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="J16">
-        <v>0.01650409727107189</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>103.0363983153725</v>
+        <v>104.8901967643433</v>
       </c>
       <c r="R16">
-        <v>927.3275848383521</v>
+        <v>944.0117708790899</v>
       </c>
       <c r="S16">
-        <v>0.001418334351247945</v>
+        <v>0.001536173627044594</v>
       </c>
       <c r="T16">
-        <v>0.001418334351247945</v>
+        <v>0.001536173627044594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.083191333333334</v>
+        <v>3.519643333333333</v>
       </c>
       <c r="H17">
-        <v>9.249574000000001</v>
+        <v>10.55893</v>
       </c>
       <c r="I17">
-        <v>0.0165040972710719</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="J17">
-        <v>0.01650409727107189</v>
+        <v>0.0187347732382769</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>320.4750416731345</v>
+        <v>304.3674667972822</v>
       </c>
       <c r="R17">
-        <v>2884.27537505821</v>
+        <v>2739.30720117554</v>
       </c>
       <c r="S17">
-        <v>0.004411458161914502</v>
+        <v>0.004457626068476403</v>
       </c>
       <c r="T17">
-        <v>0.0044114581619145</v>
+        <v>0.004457626068476403</v>
       </c>
     </row>
   </sheetData>
